--- a/modelos/OBAPPA4451061/OBAPPA4451061_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451061/OBAPPA4451061_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>15.99499743144942</v>
+        <v>15.39267548660456</v>
       </c>
       <c r="C2" t="n">
-        <v>9.122166980597852</v>
+        <v>8.327754519402561</v>
       </c>
       <c r="D2" t="n">
-        <v>23.34011562043917</v>
+        <v>22.6795042565137</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
@@ -496,13 +496,13 @@
         <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>17.80444905965407</v>
+        <v>17.16036783870834</v>
       </c>
       <c r="C3" t="n">
-        <v>11.06433598657451</v>
+        <v>10.52924002294501</v>
       </c>
       <c r="D3" t="n">
-        <v>25.13359284388551</v>
+        <v>24.49381316945957</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
@@ -516,13 +516,13 @@
         <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>23.62574633879928</v>
+        <v>23.22411978845849</v>
       </c>
       <c r="C4" t="n">
-        <v>16.06678597599349</v>
+        <v>16.3322020092478</v>
       </c>
       <c r="D4" t="n">
-        <v>31.26871139179638</v>
+        <v>30.53808413407648</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>24.19647443562562</v>
+        <v>23.85838946229445</v>
       </c>
       <c r="C5" t="n">
-        <v>16.92007157276369</v>
+        <v>16.08199927004297</v>
       </c>
       <c r="D5" t="n">
-        <v>30.84820501862276</v>
+        <v>31.38818328850428</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
@@ -556,13 +556,13 @@
         <v>45062</v>
       </c>
       <c r="B6" t="n">
-        <v>18.16473712955878</v>
+        <v>17.57185442742564</v>
       </c>
       <c r="C6" t="n">
-        <v>11.20551860065638</v>
+        <v>10.21203132396909</v>
       </c>
       <c r="D6" t="n">
-        <v>25.98042965667013</v>
+        <v>24.53184288706098</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -637,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>102.0246676869463</v>
+        <v>115.0064793622942</v>
       </c>
       <c r="C2" t="n">
-        <v>10.10072609701631</v>
+        <v>10.72410739233313</v>
       </c>
       <c r="D2" t="n">
-        <v>10.10027675444826</v>
+        <v>10.72347833734355</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3744673051980842</v>
+        <v>0.3975518698960546</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3744673051980842</v>
+        <v>0.3975518698960546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.460831383715492</v>
+        <v>0.4962862350819115</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +663,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>14.99031846559196</v>
+        <v>13.31506798622831</v>
       </c>
       <c r="C3" t="n">
-        <v>3.871733263745316</v>
+        <v>3.648981773896427</v>
       </c>
       <c r="D3" t="n">
-        <v>3.245155075461708</v>
+        <v>3.068708033753865</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1781715989341439</v>
+        <v>0.1649140638047811</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1352960705974238</v>
+        <v>0.09824090171410238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1589811639396159</v>
+        <v>0.1490690109386464</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>

--- a/modelos/OBAPPA4451061/OBAPPA4451061_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451061/OBAPPA4451061_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45020</v>
+        <v>45005</v>
       </c>
       <c r="B2" t="n">
-        <v>15.39267548660456</v>
+        <v>24.04985923658445</v>
       </c>
       <c r="C2" t="n">
-        <v>8.327754519402561</v>
+        <v>17.19763747744834</v>
       </c>
       <c r="D2" t="n">
-        <v>22.6795042565137</v>
+        <v>31.20717602864449</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>17.16036783870834</v>
+        <v>16.09399997500317</v>
       </c>
       <c r="C3" t="n">
-        <v>10.52924002294501</v>
+        <v>8.747617497831584</v>
       </c>
       <c r="D3" t="n">
-        <v>24.49381316945957</v>
+        <v>23.12767458264899</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45033</v>
+        <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>23.22411978845849</v>
+        <v>17.75374608842251</v>
       </c>
       <c r="C4" t="n">
-        <v>16.3322020092478</v>
+        <v>10.73182711913019</v>
       </c>
       <c r="D4" t="n">
-        <v>30.53808413407648</v>
+        <v>24.71846000906739</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45026</v>
@@ -533,41 +533,61 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>23.85838946229445</v>
+        <v>23.69394520861221</v>
       </c>
       <c r="C5" t="n">
-        <v>16.08199927004297</v>
+        <v>16.86123635418484</v>
       </c>
       <c r="D5" t="n">
-        <v>31.38818328850428</v>
+        <v>30.86833279981745</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24.27383238777185</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.40165312368799</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.34983634238428</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B6" t="n">
-        <v>17.57185442742564</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.21203132396909</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.53184288706098</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B7" t="n">
+        <v>18.18675979269602</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.35094063875854</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.87387753206513</v>
+      </c>
+      <c r="E7" t="n">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -637,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>115.0064793622942</v>
+        <v>101.5572778578771</v>
       </c>
       <c r="C2" t="n">
-        <v>10.72410739233313</v>
+        <v>10.07756309123774</v>
       </c>
       <c r="D2" t="n">
-        <v>10.72347833734355</v>
+        <v>10.07612696828716</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3975518698960546</v>
+        <v>0.3734688203303063</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3975518698960546</v>
+        <v>0.3734688203303063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4962862350819115</v>
+        <v>0.4592739488846078</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +683,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>13.31506798622831</v>
+        <v>11.46278907059668</v>
       </c>
       <c r="C3" t="n">
-        <v>3.648981773896427</v>
+        <v>3.385674093972525</v>
       </c>
       <c r="D3" t="n">
-        <v>3.068708033753865</v>
+        <v>2.454126552110026</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1649140638047811</v>
+        <v>0.1348845976637835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09824090171410238</v>
+        <v>0.09445733934950641</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1490690109386464</v>
+        <v>0.1201169161386558</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>

--- a/modelos/OBAPPA4451061/OBAPPA4451061_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451061/OBAPPA4451061_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45005</v>
+        <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>24.04985923658445</v>
+        <v>15.52458024030124</v>
       </c>
       <c r="C2" t="n">
-        <v>17.19763747744834</v>
+        <v>7.984784847237283</v>
       </c>
       <c r="D2" t="n">
-        <v>31.20717602864449</v>
+        <v>22.3959028839611</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44998</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>16.09399997500317</v>
+        <v>17.26103207312467</v>
       </c>
       <c r="C3" t="n">
-        <v>8.747617497831584</v>
+        <v>9.997306467942659</v>
       </c>
       <c r="D3" t="n">
-        <v>23.12767458264899</v>
+        <v>24.67217497735301</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45019</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>17.75374608842251</v>
+        <v>23.29805236000916</v>
       </c>
       <c r="C4" t="n">
-        <v>10.73182711913019</v>
+        <v>15.91035943587478</v>
       </c>
       <c r="D4" t="n">
-        <v>24.71846000906739</v>
+        <v>31.08009688531295</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45026</v>
@@ -533,61 +533,41 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.92824393778331</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.98297224943771</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.76268834987971</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B5" t="n">
-        <v>23.69394520861221</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.86123635418484</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.86833279981745</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45062</v>
       </c>
       <c r="B6" t="n">
-        <v>24.27383238777185</v>
+        <v>17.67298210944497</v>
       </c>
       <c r="C6" t="n">
-        <v>16.40165312368799</v>
+        <v>9.582271946264582</v>
       </c>
       <c r="D6" t="n">
-        <v>31.34983634238428</v>
+        <v>25.67746783136114</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B7" t="n">
-        <v>18.18675979269602</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.35094063875854</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25.87387753206513</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -657,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>101.5572778578771</v>
+        <v>112.5299256381721</v>
       </c>
       <c r="C2" t="n">
-        <v>10.07756309123774</v>
+        <v>10.60801233210879</v>
       </c>
       <c r="D2" t="n">
-        <v>10.07612696828716</v>
+        <v>10.60719384328705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3734688203303063</v>
+        <v>0.393217664402695</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3734688203303063</v>
+        <v>0.393217664402695</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4592739488846078</v>
+        <v>0.489537746413109</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,22 +663,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>11.46278907059668</v>
+        <v>13.61319036455264</v>
       </c>
       <c r="C3" t="n">
-        <v>3.385674093972525</v>
+        <v>3.689605719389626</v>
       </c>
       <c r="D3" t="n">
-        <v>2.454126552110026</v>
+        <v>3.101057895739706</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1348845976637835</v>
+        <v>0.1673287242907834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09445733934950641</v>
+        <v>0.1045613818403104</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1201169161386558</v>
+        <v>0.1508745848783167</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
